--- a/data/trans_dic/P32E$calle_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32E$calle_2023-Habitat-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en la calle (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en la calle (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -870,7 +870,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en la calle (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en la calle (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$calle_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32E$calle_2023-Habitat-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.3012948775097005</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2250931368430457</v>
+        <v>0.2250931368430456</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06397610582186886</v>
+        <v>0.07663704068886905</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08735583325024822</v>
+        <v>0.08749713382749728</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1203926815563955</v>
+        <v>0.1211816136691359</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3651540137243613</v>
+        <v>0.3794129402442622</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6188242945012056</v>
+        <v>0.6191187157683564</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3757225721608717</v>
+        <v>0.3687341820523037</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1209162979944562</v>
+        <v>0.1174200529239301</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02563975738986661</v>
+        <v>0.02792829124812983</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1214182195792675</v>
+        <v>0.1144342076278046</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4783916815628756</v>
+        <v>0.4555622222444012</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3871024943558802</v>
+        <v>0.370009998113361</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3844570191157593</v>
+        <v>0.3731957710983826</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1445796699319569</v>
+        <v>0.1445796699319568</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0</v>
@@ -691,11 +691,11 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04266180526704391</v>
+        <v>0.0432400914934588</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.03537176324906594</v>
+        <v>0.03401682342444799</v>
       </c>
     </row>
     <row r="12">
@@ -706,11 +706,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3538815780375605</v>
+        <v>0.3704566182329019</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.3002601773868899</v>
+        <v>0.3089896587666545</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03961551001560385</v>
+        <v>0.04879553979604145</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05381873571710955</v>
+        <v>0.0573447357420306</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2248925388137384</v>
+        <v>0.2214210790219858</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4879481760844139</v>
+        <v>0.492725337160694</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2243153596910416</v>
+        <v>0.2380009212007567</v>
       </c>
     </row>
     <row r="16">
@@ -783,7 +783,7 @@
         <v>0.1744712219838913</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1571953754919922</v>
+        <v>0.1571953754919921</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.1695575014106997</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.116383155171635</v>
+        <v>0.1117042471662311</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07625386904821474</v>
+        <v>0.07416928853873299</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1147421635213157</v>
+        <v>0.1141848791583843</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2585276312996014</v>
+        <v>0.2529928141080319</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2855919027166107</v>
+        <v>0.2768327104271247</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2323980087816395</v>
+        <v>0.2338994735943356</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2238</v>
+        <v>2681</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5547</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="7">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12773</v>
+        <v>13271</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6866</v>
+        <v>6870</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17311</v>
+        <v>16989</v>
       </c>
     </row>
     <row r="8">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4697</v>
+        <v>4562</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>646</v>
+        <v>704</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7776</v>
+        <v>7329</v>
       </c>
     </row>
     <row r="11">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18585</v>
+        <v>17698</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9752</v>
+        <v>9322</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24621</v>
+        <v>23900</v>
       </c>
     </row>
     <row r="12">
@@ -1106,11 +1106,11 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1286</v>
+        <v>1303</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>1287</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="15">
@@ -1121,11 +1121,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10665</v>
+        <v>11164</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>10925</v>
+        <v>11242</v>
       </c>
     </row>
     <row r="16">
@@ -1174,13 +1174,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2279</v>
+        <v>2807</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4261</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="19">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12935</v>
+        <v>12736</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10563</v>
+        <v>10667</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17758</v>
+        <v>18842</v>
       </c>
     </row>
     <row r="20">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18794</v>
+        <v>18038</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4894</v>
+        <v>4761</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>25894</v>
+        <v>25768</v>
       </c>
     </row>
     <row r="23">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>41748</v>
+        <v>40854</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18331</v>
+        <v>17769</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>52445</v>
+        <v>52784</v>
       </c>
     </row>
     <row r="24">
